--- a/tspi/ciclo-1/task1/forma-task1-20106065.xlsx
+++ b/tspi/ciclo-1/task1/forma-task1-20106065.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="400" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="809" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="TASK" sheetId="1" state="visible" r:id="rId2"/>
@@ -126,12 +126,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="0.00%" numFmtId="165"/>
     <numFmt formatCode="MM/DD/YYYY" numFmtId="166"/>
     <numFmt formatCode="@" numFmtId="167"/>
-    <numFmt formatCode="MM/DD/YY" numFmtId="168"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -266,7 +265,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
@@ -315,7 +314,7 @@
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="6" numFmtId="166" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="6" numFmtId="166" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="168" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
@@ -338,8 +337,6 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="166" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="168" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="168" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -359,26 +356,26 @@
   </sheetPr>
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A8" activeCellId="0" pane="topLeft" sqref="A8"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="Q1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="S7" activeCellId="0" pane="topLeft" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.61960784313725"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="46.2901960784314"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.95686274509804"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="39.6666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="11.7490196078431"/>
-    <col collapsed="false" hidden="false" max="11" min="7" style="1" width="17.1764705882353"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="17.1490196078431"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="3" width="17.1764705882353"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.09019607843137"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="4" width="17.1764705882353"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="17.7529411764706"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="11.7490196078431"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="17.1764705882353"/>
-    <col collapsed="false" hidden="false" max="1023" min="21" style="1" width="11.7490196078431"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.7490196078431"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.63529411764706"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="46.5254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.9921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="39.8666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="11" min="7" style="1" width="17.2666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="17.2313725490196"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="3" width="17.2666666666667"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.13333333333333"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="4" width="17.2666666666667"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="17.843137254902"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="4" width="17.2666666666667"/>
+    <col collapsed="false" hidden="false" max="1023" min="21" style="1" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.8117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -464,10 +461,10 @@
       <c r="R2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -680,10 +677,10 @@
       <c r="R6" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="S6" s="33" t="n">
+      <c r="S6" s="30" t="n">
         <v>41905</v>
       </c>
-      <c r="T6" s="33" t="n">
+      <c r="T6" s="30" t="n">
         <v>41905</v>
       </c>
     </row>
@@ -733,10 +730,10 @@
       <c r="R7" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="S7" s="33" t="n">
+      <c r="S7" s="30" t="n">
         <v>41910</v>
       </c>
-      <c r="T7" s="34" t="n">
+      <c r="T7" s="31" t="n">
         <v>41912</v>
       </c>
     </row>
@@ -788,10 +785,10 @@
       <c r="R8" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="S8" s="33" t="n">
+      <c r="S8" s="30" t="n">
         <v>41913</v>
       </c>
-      <c r="T8" s="33" t="n">
+      <c r="T8" s="30" t="n">
         <v>41913</v>
       </c>
     </row>
